--- a/src/analysis_examples/circadb/results_lomb/cosinor_10430510_tmem184b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10430510_tmem184b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2726300065890105, 0.41219485164872294]</t>
+          <t>[0.27678242052593677, 0.40804243771179666]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.357870038631859e-09</v>
+        <v>4.557791921655507e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.357870038631859e-09</v>
+        <v>4.557791921655507e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6918422260157699</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4078405306281264, 0.4784354410314402]</t>
+          <t>[0.40784260368042174, 0.4784333679791449]</t>
         </is>
       </c>
       <c r="U2" t="n">
